--- a/data/trans_dic/P16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,09; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>2,53; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>2,57; 6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,64; 7,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,42; 5,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>4,3; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,64; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>1,29; 7,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,52; 4,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,75; 6,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,39; 6,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,92; 6,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,43; 3,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,53; 5,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,25; 5,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>3,09; 8,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,68; 6,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,46; 8,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,5; 8,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,7; 19,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,36; 4,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,9; 6,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,67; 6,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,2; 13,14</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,04; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,68; 6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,84; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,33; 5,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,8; 5,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,63; 9,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,22; 8,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,68; 6,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,17; 3,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,59; 7,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,9; 6,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,27; 5,66</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,9; 3,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,19; 4,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,04; 3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,71; 6,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,71; 4,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,93; 7,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,6; 7,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,88; 7,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,65; 3,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,92; 5,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,53; 4,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,32; 6,58</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,19; 5,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,97; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>2,51; 6,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,83; 3,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,06; 7,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,84; 5,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,56; 8,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,18; 6,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,61; 5,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,64; 3,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,33; 6,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,25; 4,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,0; 3,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,43; 6,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,31; 3,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,27; 3,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,19; 5,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,77; 5,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,29; 5,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,07; 3,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,95; 4,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,95; 5,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,08; 4,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,99; 3,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,89; 2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,78; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,57; 3,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,75; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,32; 4,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,72; 6,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,62; 6,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,32; 6,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,73; 3,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,99; 5,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,77; 4,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,77; 5,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,74</t>
+          <t>1,6; 8,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,49</t>
+          <t>1,32; 7,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,09</t>
+          <t>1,97; 6,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>13,15%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,38</t>
+          <t>3,36; 9,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 19,02</t>
+          <t>5,76; 47,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 13,14</t>
+          <t>5,62; 34,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,65</t>
+          <t>2,36; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,85</t>
+          <t>3,66; 6,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,66</t>
+          <t>3,28; 5,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,13</t>
+          <t>1,21; 5,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,83</t>
+          <t>4,52; 7,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,58</t>
+          <t>2,82; 5,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,01</t>
+          <t>0,77; 2,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,04</t>
+          <t>3,1; 5,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,04</t>
+          <t>2,18; 3,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,57</t>
+          <t>0,49; 3,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,1</t>
+          <t>2,26; 7,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,53</t>
+          <t>0,56; 3,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,17</t>
+          <t>0,92; 3,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,15</t>
+          <t>2,84; 7,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,55</t>
+          <t>2,44; 6,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,24</t>
+          <t>1,69; 5,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,98</t>
+          <t>0,94; 4,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,01</t>
+          <t>2,06; 4,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,29</t>
+          <t>2,79; 5,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,04</t>
+          <t>1,42; 3,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,34</t>
+          <t>1,16; 3,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,82; 5,05</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 7,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 5,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 4,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 4,71</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 6,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 6,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 3,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 5,55</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 5,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,89; 2,97</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,78; 4,09</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,57; 3,68</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 4,19</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 4,13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>3,32; 4,64</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,72; 6,31</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,62; 6,26</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 6,65</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 14,16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,73; 3,58</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>3,99; 5,0</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>3,77; 4,72</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 5,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 9,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,29</t>
+          <t>1,99; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,25</t>
+          <t>2,51; 6,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,36</t>
+          <t>2,5; 6,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,47</t>
+          <t>1,62; 8,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,9</t>
+          <t>2,28; 5,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,23</t>
+          <t>4,4; 9,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,23</t>
+          <t>3,63; 8,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,66</t>
+          <t>1,31; 7,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,87</t>
+          <t>2,48; 4,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,8</t>
+          <t>3,8; 6,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,39</t>
+          <t>3,43; 6,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,42</t>
+          <t>1,98; 6,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,94</t>
+          <t>1,53; 4,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,64</t>
+          <t>2,66; 5,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,21</t>
+          <t>2,33; 5,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,38</t>
+          <t>3,21; 9,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,07</t>
+          <t>2,82; 6,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,39</t>
+          <t>4,48; 8,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,52</t>
+          <t>4,24; 8,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 47,98</t>
+          <t>5,91; 50,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,46</t>
+          <t>2,33; 4,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,44</t>
+          <t>3,85; 6,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,23</t>
+          <t>3,63; 6,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 34,84</t>
+          <t>5,59; 34,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,37</t>
+          <t>1,03; 3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,13</t>
+          <t>2,48; 5,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,78</t>
+          <t>1,97; 4,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,78</t>
+          <t>2,33; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,92</t>
+          <t>2,77; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,65</t>
+          <t>5,86; 10,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,95</t>
+          <t>5,15; 9,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,76</t>
+          <t>3,62; 6,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,98</t>
+          <t>2,2; 4,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,12</t>
+          <t>4,54; 7,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,47</t>
+          <t>3,92; 6,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,65</t>
+          <t>3,38; 5,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,95</t>
+          <t>0,82; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,44</t>
+          <t>1,21; 4,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,64</t>
+          <t>1,07; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,38</t>
+          <t>1,32; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,75</t>
+          <t>1,84; 4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,88</t>
+          <t>3,84; 7,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,6</t>
+          <t>3,52; 7,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,5</t>
+          <t>4,47; 7,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,76</t>
+          <t>1,72; 3,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,26</t>
+          <t>2,91; 5,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,72</t>
+          <t>2,55; 4,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,93</t>
+          <t>2,82; 5,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,25</t>
+          <t>1,34; 5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,57</t>
+          <t>0,97; 3,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,37</t>
+          <t>2,34; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,87</t>
+          <t>0,88; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,78</t>
+          <t>3,05; 7,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,24</t>
+          <t>1,8; 5,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,2</t>
+          <t>3,39; 7,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,94</t>
+          <t>3,1; 5,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,52</t>
+          <t>2,59; 5,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,72</t>
+          <t>1,67; 3,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,21</t>
+          <t>3,4; 6,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,9</t>
+          <t>2,23; 3,95</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,82</t>
+          <t>0,62; 3,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,06</t>
+          <t>2,03; 7,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,16</t>
+          <t>0,55; 3,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,29</t>
+          <t>0,94; 3,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,59</t>
+          <t>2,73; 7,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,74</t>
+          <t>2,48; 6,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,67</t>
+          <t>1,57; 5,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,53</t>
+          <t>1,12; 4,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,86</t>
+          <t>2,26; 5,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,95</t>
+          <t>2,73; 6,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,81</t>
+          <t>1,41; 3,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,4</t>
+          <t>1,16; 3,52</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,05</t>
+          <t>0,81; 5,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,3</t>
+          <t>1,73; 7,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,77</t>
+          <t>1,6; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,12</t>
+          <t>1,08; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,71</t>
+          <t>1,01; 5,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,02</t>
+          <t>1,97; 6,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,55</t>
+          <t>2,26; 6,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,01</t>
+          <t>1,83; 4,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,99</t>
+          <t>1,19; 4,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,55</t>
+          <t>2,38; 5,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,6</t>
+          <t>2,38; 5,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,59</t>
+          <t>1,79; 3,67</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,97</t>
+          <t>1,88; 3,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,09</t>
+          <t>2,84; 4,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,68</t>
+          <t>2,51; 3,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,13</t>
+          <t>2,44; 4,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,64</t>
+          <t>3,28; 4,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,31</t>
+          <t>4,78; 6,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,26</t>
+          <t>4,62; 6,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,16</t>
+          <t>4,18; 12,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,58</t>
+          <t>2,71; 3,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,0</t>
+          <t>3,95; 5,02</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,77; 4,72</t>
+          <t>3,74; 4,77</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,42</t>
+          <t>3,67; 8,79</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18367</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16196</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17756</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27039</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21831</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10224</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>34525</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45406</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39033</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26420</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9813; 25591</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11375; 28696</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10500; 26998</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6470; 32955</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10653; 26329</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18875; 39866</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14372; 32702</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4097; 22428</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23862; 47757</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33549; 59157</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27970; 52348</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14098; 48000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27125</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21319</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23947</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26322</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37747</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34646</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99044</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44880</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64872</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55965</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>122991</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11286; 30437</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18239; 40101</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13772; 31748</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13596; 40805</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17628; 38855</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27305; 50312</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23896; 47095</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30206; 259330</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31648; 59518</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49834; 82421</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41916; 70576</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52272; 321557</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11973</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26630</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20877</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20252</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28388</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52868</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45791</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26656</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40361</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>79498</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>66668</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46908</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6583; 21090</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16857; 39092</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13211; 32574</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12473; 30817</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19126; 40765</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41347; 70782</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34071; 59772</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19622; 35934</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29193; 55613</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62905; 99158</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52170; 83501</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36449; 62419</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13883</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12618</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>29965</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16027</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34147</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33919</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41867</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26864</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48030</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46537</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>71832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4267; 21356</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7432; 25255</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6910; 22160</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11685; 49205</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9481; 25543</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23590; 48625</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22863; 48574</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31831; 52965</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17840; 39371</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35713; 65373</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33023; 62065</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45158; 93284</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9971</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8475</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19160</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9133</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20252</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14375</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26178</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23732</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30224</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22850</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45338</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32865</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5189; 19413</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4165; 16716</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11190; 29467</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4929; 15816</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12317; 30232</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8080; 23181</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16851; 39008</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16880; 31676</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20484; 43448</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14627; 33775</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>33138; 62530</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24666; 43602</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4773</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6733</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15774</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14848</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16394</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20878</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>27256</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17154</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23127</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1810; 10684</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6237; 22975</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1850; 11406</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3443; 12150</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9379; 24667</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8757; 23759</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5945; 20520</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6802; 27871</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14359; 31966</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18068; 40494</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10027; 27188</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11293; 34326</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5002</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8287</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6454</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7756</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14182</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15715</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11764</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>12758</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>23903</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>18218</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1707; 11334</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4313; 18804</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4102; 14953</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3057; 11941</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3370; 17299</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7609; 23822</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9062; 26003</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7746; 17455</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6471; 22027</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>15126; 36511</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15638; 36121</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12652; 25970</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>78213</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>112679</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>132277</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>190462</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>229682</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>210489</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>311815</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>294698</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>342361</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>61545; 98468</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>97114; 140864</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>85287; 125454</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>84475; 143314</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>110742; 154949</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>169425; 224957</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>163880; 219774</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>152869; 463207</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>180513; 242450</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>274781; 349313</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>259786; 330773</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>261143; 625379</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>